--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111232797</v>
+        <v>111232792</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -722,23 +722,23 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>obs i häcktid, lämplig biotop</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bennarby, Upl</t>
+          <t>Bennarby 535 m NE, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>653020.9297556247</v>
+        <v>653109.5315440274</v>
       </c>
       <c r="R2" t="n">
-        <v>6675195.629644918</v>
+        <v>6675724.700171486</v>
       </c>
       <c r="S2" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111232791</v>
+        <v>111237120</v>
       </c>
       <c r="B3" t="n">
-        <v>56414</v>
+        <v>95535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,53 +816,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>221946</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bennarby 839 m N, Upl</t>
+          <t>Bennarby 490 m N, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>652888.9662722219</v>
+        <v>653005.8886967609</v>
       </c>
       <c r="R3" t="n">
-        <v>6676025.678915217</v>
+        <v>6675686.504186048</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -891,7 +883,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -901,7 +893,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111237141</v>
+        <v>111237131</v>
       </c>
       <c r="B4" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,46 +936,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bennarby 455 m N, Upl</t>
+          <t>Bennarby 850 m N, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>653040.309706677</v>
+        <v>652847.8720841159</v>
       </c>
       <c r="R4" t="n">
-        <v>6675650.597852546</v>
+        <v>6676030.434303769</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1015,7 +999,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:43</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1025,7 +1009,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>15:43</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1052,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111237120</v>
+        <v>111237128</v>
       </c>
       <c r="B5" t="n">
-        <v>95535</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,45 +1048,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221946</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bennarby 490 m N, Upl</t>
+          <t>Bennarby 723 m N, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>653005.8886967609</v>
+        <v>652932.4741644359</v>
       </c>
       <c r="R5" t="n">
-        <v>6675686.504186048</v>
+        <v>6675915.469018306</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1131,7 +1123,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1141,7 +1133,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1150,6 +1142,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1168,10 +1161,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111237128</v>
+        <v>111237136</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,30 +1173,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1216,17 +1209,17 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bennarby 723 m N, Upl</t>
+          <t>Bennarby, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>652932.4741644359</v>
+        <v>653020.9297556247</v>
       </c>
       <c r="R6" t="n">
-        <v>6675915.469018306</v>
+        <v>6675195.629644918</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1255,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1265,7 +1258,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1274,7 +1267,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1293,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111237116</v>
+        <v>111237109</v>
       </c>
       <c r="B7" t="n">
-        <v>95535</v>
+        <v>89369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,49 +1301,40 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221946</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bennarby 551 m N, Upl</t>
+          <t>Bennarby 656 m N, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>652923.4201053669</v>
+        <v>652917.9988985056</v>
       </c>
       <c r="R7" t="n">
-        <v>6675738.327518014</v>
+        <v>6675844.15973737</v>
       </c>
       <c r="S7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1380,7 +1363,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1390,7 +1373,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1417,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111232792</v>
+        <v>111237134</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1429,53 +1412,53 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bennarby 535 m NE, Upl</t>
+          <t>Bennarby 649 m NW, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>653109.5315440274</v>
+        <v>652848.5868069781</v>
       </c>
       <c r="R8" t="n">
-        <v>6675724.700171486</v>
+        <v>6675822.33798265</v>
       </c>
       <c r="S8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1504,7 +1487,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1514,7 +1497,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1541,10 +1524,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111232790</v>
+        <v>111232800</v>
       </c>
       <c r="B9" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1557,49 +1540,49 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bennarby 17 m SE, Upl</t>
+          <t>Bennarby 518 m NE, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653036.263870474</v>
+        <v>653098.7455210061</v>
       </c>
       <c r="R9" t="n">
-        <v>6675186.80869672</v>
+        <v>6675708.3146771</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1628,7 +1611,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1638,7 +1621,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1665,10 +1648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111237114</v>
+        <v>111232790</v>
       </c>
       <c r="B10" t="n">
-        <v>95532</v>
+        <v>56414</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1677,45 +1660,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221945</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bennarby 411 m N, Upl</t>
+          <t>Bennarby 17 m SE, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>653034.1728517635</v>
+        <v>653036.263870474</v>
       </c>
       <c r="R10" t="n">
-        <v>6675606.521359766</v>
+        <v>6675186.80869672</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1744,7 +1735,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1754,7 +1745,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1781,7 +1772,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111237134</v>
+        <v>111237141</v>
       </c>
       <c r="B11" t="n">
         <v>103288</v>
@@ -1816,7 +1807,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1829,14 +1820,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bennarby 649 m NW, Upl</t>
+          <t>Bennarby 455 m N, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>652848.5868069781</v>
+        <v>653040.309706677</v>
       </c>
       <c r="R11" t="n">
-        <v>6675822.33798265</v>
+        <v>6675650.597852546</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1868,7 +1859,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1878,7 +1869,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1905,7 +1896,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111237124</v>
+        <v>111237117</v>
       </c>
       <c r="B12" t="n">
         <v>95535</v>
@@ -1938,32 +1929,24 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bennarby 479 m NE, Upl</t>
+          <t>Bennarby 660 m NW, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653100.3679818566</v>
+        <v>652810.2082257374</v>
       </c>
       <c r="R12" t="n">
-        <v>6675669.542867802</v>
+        <v>6675821.730579126</v>
       </c>
       <c r="S12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1992,7 +1975,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2002,7 +1985,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2029,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111237109</v>
+        <v>111237140</v>
       </c>
       <c r="B13" t="n">
-        <v>89369</v>
+        <v>103288</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2045,40 +2028,49 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>221144</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bennarby 656 m N, Upl</t>
+          <t>Bennarby 662 m NW, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>652917.9988985056</v>
+        <v>652876.1561209694</v>
       </c>
       <c r="R13" t="n">
-        <v>6675844.15973737</v>
+        <v>6675842.908905573</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2107,7 +2099,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2117,7 +2109,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2144,10 +2136,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111237117</v>
+        <v>111237114</v>
       </c>
       <c r="B14" t="n">
-        <v>95535</v>
+        <v>95532</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,16 +2152,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221946</v>
+        <v>221945</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2184,14 +2176,14 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bennarby 660 m NW, Upl</t>
+          <t>Bennarby 411 m N, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>652810.2082257374</v>
+        <v>653034.1728517635</v>
       </c>
       <c r="R14" t="n">
-        <v>6675821.730579126</v>
+        <v>6675606.521359766</v>
       </c>
       <c r="S14" t="n">
         <v>8</v>
@@ -2223,7 +2215,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2233,7 +2225,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2260,10 +2252,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111232800</v>
+        <v>111237116</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>95535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2272,53 +2264,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>221946</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bennarby 518 m NE, Upl</t>
+          <t>Bennarby 551 m N, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>653098.7455210061</v>
+        <v>652923.4201053669</v>
       </c>
       <c r="R15" t="n">
-        <v>6675708.3146771</v>
+        <v>6675738.327518014</v>
       </c>
       <c r="S15" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2347,7 +2339,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2357,7 +2349,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2384,10 +2376,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111237135</v>
+        <v>111237124</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>95535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2400,31 +2392,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>221946</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2432,17 +2424,17 @@
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bennarby 684 m N, Upl</t>
+          <t>Bennarby 479 m NE, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>652877.6900598493</v>
+        <v>653100.3679818566</v>
       </c>
       <c r="R16" t="n">
-        <v>6675865.877308949</v>
+        <v>6675669.542867802</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2471,7 +2463,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2481,7 +2473,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2508,10 +2500,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111237121</v>
+        <v>111232797</v>
       </c>
       <c r="B17" t="n">
-        <v>95535</v>
+        <v>56543</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2520,53 +2512,53 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221946</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bennarby 483 m N, Upl</t>
+          <t>Bennarby, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653030.1206792727</v>
+        <v>653020.9297556247</v>
       </c>
       <c r="R17" t="n">
-        <v>6675679.550551136</v>
+        <v>6675195.629644918</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2595,7 +2587,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2605,7 +2597,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2632,10 +2624,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111232799</v>
+        <v>111237121</v>
       </c>
       <c r="B18" t="n">
-        <v>56543</v>
+        <v>95535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2644,39 +2636,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>221946</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2684,13 +2676,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653009.1879392023</v>
+        <v>653030.1206792727</v>
       </c>
       <c r="R18" t="n">
-        <v>6675679.172996391</v>
+        <v>6675679.550551136</v>
       </c>
       <c r="S18" t="n">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2719,7 +2711,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2729,7 +2721,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2756,10 +2748,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111237131</v>
+        <v>111237135</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>103288</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2772,38 +2764,46 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bennarby 850 m N, Upl</t>
+          <t>Bennarby 684 m N, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>652847.8720841159</v>
+        <v>652877.6900598493</v>
       </c>
       <c r="R19" t="n">
-        <v>6676030.434303769</v>
+        <v>6675865.877308949</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2872,10 +2872,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111237136</v>
+        <v>111232799</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2884,53 +2884,53 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bennarby, Upl</t>
+          <t>Bennarby 483 m N, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>653020.9297556247</v>
+        <v>653009.1879392023</v>
       </c>
       <c r="R20" t="n">
-        <v>6675195.629644918</v>
+        <v>6675679.172996391</v>
       </c>
       <c r="S20" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2996,10 +2996,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111237140</v>
+        <v>111232791</v>
       </c>
       <c r="B21" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3008,53 +3008,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bennarby 662 m NW, Upl</t>
+          <t>Bennarby 839 m N, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>652876.1561209694</v>
+        <v>652888.9662722219</v>
       </c>
       <c r="R21" t="n">
-        <v>6675842.908905573</v>
+        <v>6676025.678915217</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3120,10 +3120,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111249676</v>
+        <v>111249688</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>90018</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3132,53 +3132,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>1339</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Långmossen 199 m SW, Upl</t>
+          <t>Långmossen 140 m NW, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>652730.8314067896</v>
+        <v>652704.8584836012</v>
       </c>
       <c r="R22" t="n">
-        <v>6676217.728192463</v>
+        <v>6676445.656187969</v>
       </c>
       <c r="S22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3207,7 +3198,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3217,7 +3208,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3244,10 +3235,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111249688</v>
+        <v>111249676</v>
       </c>
       <c r="B23" t="n">
-        <v>90018</v>
+        <v>56414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3256,44 +3247,53 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1339</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Långmossen 140 m NW, Upl</t>
+          <t>Långmossen 199 m SW, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>652704.8584836012</v>
+        <v>652730.8314067896</v>
       </c>
       <c r="R23" t="n">
-        <v>6676445.656187969</v>
+        <v>6676217.728192463</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3359,10 +3359,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111245090</v>
+        <v>111249689</v>
       </c>
       <c r="B24" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3371,44 +3371,53 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bennarby (Bennarby), Upl</t>
+          <t>Långmossen 204 m SW, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>652995.8569036967</v>
+        <v>652676.3604001063</v>
       </c>
       <c r="R24" t="n">
-        <v>6675306.133869487</v>
+        <v>6676256.27920232</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3437,7 +3446,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3447,7 +3456,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3456,24 +3465,8 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3490,10 +3483,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111249684</v>
+        <v>111245090</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>90018</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3502,25 +3495,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>1339</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3529,17 +3522,17 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Långmossen 217 m NW, Upl</t>
+          <t>Bennarby (Bennarby), Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>652631.4748107102</v>
+        <v>652995.8569036967</v>
       </c>
       <c r="R25" t="n">
-        <v>6676471.467585081</v>
+        <v>6675306.133869487</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3568,7 +3561,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3578,7 +3571,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3587,8 +3580,24 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3729,10 +3738,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111249689</v>
+        <v>111249684</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3741,53 +3750,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långmossen 204 m SW, Upl</t>
+          <t>Långmossen 217 m NW, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>652676.3604001063</v>
+        <v>652631.4748107102</v>
       </c>
       <c r="R27" t="n">
-        <v>6676256.27920232</v>
+        <v>6676471.467585081</v>
       </c>
       <c r="S27" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3853,10 +3853,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111265342</v>
+        <v>111274826</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3865,53 +3865,53 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bennarby 185 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>653043.9889144575</v>
+        <v>652811.1314708465</v>
       </c>
       <c r="R28" t="n">
-        <v>6675347.98612793</v>
+        <v>6676110.055385837</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3950,12 +3950,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:03</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3982,10 +3977,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111276278</v>
+        <v>111269753</v>
       </c>
       <c r="B29" t="n">
-        <v>95535</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3994,29 +3989,37 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221946</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -4026,13 +4029,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>652683.1006531697</v>
+        <v>652931.4232853912</v>
       </c>
       <c r="R29" t="n">
-        <v>6676429.314872628</v>
+        <v>6675809.368283006</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4061,7 +4064,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4071,7 +4074,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4098,7 +4101,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111274824</v>
+        <v>111274822</v>
       </c>
       <c r="B30" t="n">
         <v>56414</v>
@@ -4150,13 +4153,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>652897.9797113753</v>
+        <v>652889.1870446624</v>
       </c>
       <c r="R30" t="n">
-        <v>6676191.851515387</v>
+        <v>6676151.653844994</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4185,7 +4188,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4195,7 +4198,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4222,10 +4225,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111276274</v>
+        <v>111265342</v>
       </c>
       <c r="B31" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4234,44 +4237,53 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 185 m N, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>653083.3940769237</v>
+        <v>653043.9889144575</v>
       </c>
       <c r="R31" t="n">
-        <v>6675896.387558945</v>
+        <v>6675347.98612793</v>
       </c>
       <c r="S31" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4300,7 +4312,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4310,7 +4322,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4337,10 +4354,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111276277</v>
+        <v>111276287</v>
       </c>
       <c r="B32" t="n">
-        <v>95535</v>
+        <v>103288</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4353,41 +4370,49 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221946</v>
+        <v>221144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 493 m N, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>652897.8550654037</v>
+        <v>652975.4985763771</v>
       </c>
       <c r="R32" t="n">
-        <v>6676194.83355011</v>
+        <v>6675649.879196484</v>
       </c>
       <c r="S32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4416,7 +4441,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4426,7 +4451,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4453,10 +4478,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111276279</v>
+        <v>111274824</v>
       </c>
       <c r="B33" t="n">
-        <v>95535</v>
+        <v>56414</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4465,39 +4490,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221946</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4505,13 +4530,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>652608.141981552</v>
+        <v>652897.9797113753</v>
       </c>
       <c r="R33" t="n">
-        <v>6676588.478476489</v>
+        <v>6676191.851515387</v>
       </c>
       <c r="S33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4540,7 +4565,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4550,7 +4575,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4577,10 +4602,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111276275</v>
+        <v>111276274</v>
       </c>
       <c r="B34" t="n">
-        <v>95535</v>
+        <v>89369</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4593,41 +4618,40 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221946</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bennarby 504 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>652974.5434261523</v>
+        <v>653083.3940769237</v>
       </c>
       <c r="R34" t="n">
-        <v>6675660.794111629</v>
+        <v>6675896.387558945</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4656,7 +4680,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4666,7 +4690,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4817,10 +4841,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111274826</v>
+        <v>111276288</v>
       </c>
       <c r="B36" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4829,53 +4853,53 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 599 m N, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>652811.1314708465</v>
+        <v>653128.0951301614</v>
       </c>
       <c r="R36" t="n">
-        <v>6676110.055385837</v>
+        <v>6675757.843079904</v>
       </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4904,7 +4928,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4914,7 +4938,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4941,10 +4965,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111276287</v>
+        <v>111274818</v>
       </c>
       <c r="B37" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4953,53 +4977,53 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bennarby 493 m N, Upl</t>
+          <t>Bennarby 517 m N, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>652975.4985763771</v>
+        <v>652969.0447899087</v>
       </c>
       <c r="R37" t="n">
-        <v>6675649.879196484</v>
+        <v>6675673.012862316</v>
       </c>
       <c r="S37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5028,7 +5052,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5038,7 +5062,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5065,10 +5089,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111269753</v>
+        <v>111276277</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>95535</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5077,37 +5101,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>221946</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -5117,13 +5133,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>652931.4232853912</v>
+        <v>652897.8550654037</v>
       </c>
       <c r="R38" t="n">
-        <v>6675809.368283006</v>
+        <v>6676194.83355011</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5152,7 +5168,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5162,7 +5178,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5189,10 +5205,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111276264</v>
+        <v>111276279</v>
       </c>
       <c r="B39" t="n">
-        <v>56543</v>
+        <v>95535</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5201,39 +5217,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>103021</v>
+        <v>221946</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5241,13 +5257,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>652938.8923843188</v>
+        <v>652608.141981552</v>
       </c>
       <c r="R39" t="n">
-        <v>6675797.730261074</v>
+        <v>6676588.478476489</v>
       </c>
       <c r="S39" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5276,7 +5292,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5286,7 +5302,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5313,10 +5329,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111274822</v>
+        <v>111268843</v>
       </c>
       <c r="B40" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5325,39 +5341,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5365,13 +5381,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>652889.1870446624</v>
+        <v>653041.3813577429</v>
       </c>
       <c r="R40" t="n">
-        <v>6676151.653844994</v>
+        <v>6676149.554139665</v>
       </c>
       <c r="S40" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5400,7 +5416,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5410,7 +5426,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5437,10 +5453,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111274818</v>
+        <v>111276278</v>
       </c>
       <c r="B41" t="n">
-        <v>56414</v>
+        <v>95535</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5449,50 +5465,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>221946</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bennarby 517 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>652969.0447899087</v>
+        <v>652683.1006531697</v>
       </c>
       <c r="R41" t="n">
-        <v>6675673.012862316</v>
+        <v>6676429.314872628</v>
       </c>
       <c r="S41" t="n">
         <v>8</v>
@@ -5524,7 +5532,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5534,7 +5542,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5561,10 +5569,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111268843</v>
+        <v>111276264</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5573,39 +5581,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5613,13 +5621,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>653041.3813577429</v>
+        <v>652938.8923843188</v>
       </c>
       <c r="R42" t="n">
-        <v>6676149.554139665</v>
+        <v>6675797.730261074</v>
       </c>
       <c r="S42" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5648,7 +5656,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5658,7 +5666,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5685,10 +5693,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111276288</v>
+        <v>111276275</v>
       </c>
       <c r="B43" t="n">
-        <v>103288</v>
+        <v>95535</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5701,49 +5709,41 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221144</v>
+        <v>221946</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bennarby 599 m N, Upl</t>
+          <t>Bennarby 504 m N, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>653128.0951301614</v>
+        <v>652974.5434261523</v>
       </c>
       <c r="R43" t="n">
-        <v>6675757.843079904</v>
+        <v>6675660.794111629</v>
       </c>
       <c r="S43" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5925,10 +5925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111410475</v>
+        <v>111410479</v>
       </c>
       <c r="B45" t="n">
-        <v>95535</v>
+        <v>96348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5937,35 +5937,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221946</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -5973,14 +5973,14 @@
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>653059.7969692796</v>
+        <v>652957.9861328325</v>
       </c>
       <c r="R45" t="n">
-        <v>6675792.827983578</v>
+        <v>6675686.990895226</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6173,10 +6173,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111410463</v>
+        <v>111410448</v>
       </c>
       <c r="B47" t="n">
-        <v>90018</v>
+        <v>5113</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6189,40 +6189,50 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1339</v>
+        <v>100526</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>652899.1291023351</v>
+        <v>652958.5506333391</v>
       </c>
       <c r="R47" t="n">
-        <v>6675698.971007503</v>
+        <v>6675625.7669597</v>
       </c>
       <c r="S47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6251,7 +6261,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6261,7 +6271,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6288,10 +6298,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111410448</v>
+        <v>111410460</v>
       </c>
       <c r="B48" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6300,25 +6310,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6326,28 +6336,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>652958.5506333391</v>
+        <v>652960.6254034473</v>
       </c>
       <c r="R48" t="n">
-        <v>6675625.7669597</v>
+        <v>6675623.861893108</v>
       </c>
       <c r="S48" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6413,10 +6422,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111410484</v>
+        <v>111410471</v>
       </c>
       <c r="B49" t="n">
-        <v>103288</v>
+        <v>95535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6429,21 +6438,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>221144</v>
+        <v>221946</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6453,7 +6462,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -6461,17 +6470,17 @@
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 492 m NW, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>652817.7520543177</v>
+        <v>653024.332951011</v>
       </c>
       <c r="R49" t="n">
-        <v>6676023.201180452</v>
+        <v>6675674.826961012</v>
       </c>
       <c r="S49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6500,7 +6509,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6510,7 +6519,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6661,10 +6670,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111410471</v>
+        <v>111410463</v>
       </c>
       <c r="B51" t="n">
-        <v>95535</v>
+        <v>90018</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6677,49 +6686,40 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>221946</v>
+        <v>1339</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 492 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>653024.332951011</v>
+        <v>652899.1291023351</v>
       </c>
       <c r="R51" t="n">
-        <v>6675674.826961012</v>
+        <v>6675698.971007503</v>
       </c>
       <c r="S51" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6785,10 +6785,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111410460</v>
+        <v>111410484</v>
       </c>
       <c r="B52" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6797,53 +6797,53 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>652960.6254034473</v>
+        <v>652817.7520543177</v>
       </c>
       <c r="R52" t="n">
-        <v>6675623.861893108</v>
+        <v>6676023.201180452</v>
       </c>
       <c r="S52" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6909,10 +6909,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111410479</v>
+        <v>111410475</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>95535</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6921,35 +6921,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>221946</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -6957,14 +6957,14 @@
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>652957.9861328325</v>
+        <v>653059.7969692796</v>
       </c>
       <c r="R53" t="n">
-        <v>6675686.990895226</v>
+        <v>6675792.827983578</v>
       </c>
       <c r="S53" t="n">
         <v>4</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD53" t="b">

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -3120,10 +3120,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111249688</v>
+        <v>111249690</v>
       </c>
       <c r="B22" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3132,41 +3132,50 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Långmossen 140 m NW, Upl</t>
+          <t>Långmossen 202 m SW, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>652704.8584836012</v>
+        <v>652685.1345972607</v>
       </c>
       <c r="R22" t="n">
-        <v>6676445.656187969</v>
+        <v>6676249.17749316</v>
       </c>
       <c r="S22" t="n">
         <v>6</v>
@@ -3198,7 +3207,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3208,7 +3217,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3235,10 +3244,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111249676</v>
+        <v>111249684</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3251,49 +3260,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Långmossen 199 m SW, Upl</t>
+          <t>Långmossen 217 m NW, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>652730.8314067896</v>
+        <v>652631.4748107102</v>
       </c>
       <c r="R23" t="n">
-        <v>6676217.728192463</v>
+        <v>6676471.467585081</v>
       </c>
       <c r="S23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3359,10 +3359,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111249689</v>
+        <v>111245090</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>90018</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3371,53 +3371,44 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Långmossen 204 m SW, Upl</t>
+          <t>Bennarby (Bennarby), Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>652676.3604001063</v>
+        <v>652995.8569036967</v>
       </c>
       <c r="R24" t="n">
-        <v>6676256.27920232</v>
+        <v>6675306.133869487</v>
       </c>
       <c r="S24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3446,7 +3437,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3456,7 +3447,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3465,8 +3456,24 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3483,10 +3490,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111245090</v>
+        <v>111249689</v>
       </c>
       <c r="B25" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3495,44 +3502,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bennarby (Bennarby), Upl</t>
+          <t>Långmossen 204 m SW, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>652995.8569036967</v>
+        <v>652676.3604001063</v>
       </c>
       <c r="R25" t="n">
-        <v>6675306.133869487</v>
+        <v>6676256.27920232</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3561,7 +3577,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3571,7 +3587,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3580,24 +3596,8 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3614,10 +3614,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111249690</v>
+        <v>111249676</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3626,53 +3626,53 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Långmossen 202 m SW, Upl</t>
+          <t>Långmossen 199 m SW, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>652685.1345972607</v>
+        <v>652730.8314067896</v>
       </c>
       <c r="R26" t="n">
-        <v>6676249.17749316</v>
+        <v>6676217.728192463</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3738,10 +3738,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111249684</v>
+        <v>111249688</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>90018</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3750,25 +3750,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>1339</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3777,17 +3777,17 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långmossen 217 m NW, Upl</t>
+          <t>Långmossen 140 m NW, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>652631.4748107102</v>
+        <v>652704.8584836012</v>
       </c>
       <c r="R27" t="n">
-        <v>6676471.467585081</v>
+        <v>6676445.656187969</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3853,10 +3853,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111274826</v>
+        <v>111276278</v>
       </c>
       <c r="B28" t="n">
-        <v>56414</v>
+        <v>95535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3865,39 +3865,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>221946</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3905,10 +3897,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>652811.1314708465</v>
+        <v>652683.1006531697</v>
       </c>
       <c r="R28" t="n">
-        <v>6676110.055385837</v>
+        <v>6676429.314872628</v>
       </c>
       <c r="S28" t="n">
         <v>8</v>
@@ -3940,7 +3932,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3950,7 +3942,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3977,10 +3969,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111269753</v>
+        <v>111276275</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>95535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3989,53 +3981,45 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>221946</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 504 m N, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>652931.4232853912</v>
+        <v>652974.5434261523</v>
       </c>
       <c r="R29" t="n">
-        <v>6675809.368283006</v>
+        <v>6675660.794111629</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4064,7 +4048,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4074,7 +4058,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4101,7 +4085,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111274822</v>
+        <v>111274818</v>
       </c>
       <c r="B30" t="n">
         <v>56414</v>
@@ -4149,17 +4133,17 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 517 m N, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>652889.1870446624</v>
+        <v>652969.0447899087</v>
       </c>
       <c r="R30" t="n">
-        <v>6676151.653844994</v>
+        <v>6675673.012862316</v>
       </c>
       <c r="S30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4188,7 +4172,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4198,7 +4182,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4225,10 +4209,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111265342</v>
+        <v>111274822</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4237,50 +4221,50 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bennarby 185 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>653043.9889144575</v>
+        <v>652889.1870446624</v>
       </c>
       <c r="R31" t="n">
-        <v>6675347.98612793</v>
+        <v>6676151.653844994</v>
       </c>
       <c r="S31" t="n">
         <v>9</v>
@@ -4312,7 +4296,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4322,12 +4306,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:03</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4354,10 +4333,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111276287</v>
+        <v>111274824</v>
       </c>
       <c r="B32" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4366,50 +4345,50 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bennarby 493 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>652975.4985763771</v>
+        <v>652897.9797113753</v>
       </c>
       <c r="R32" t="n">
-        <v>6675649.879196484</v>
+        <v>6676191.851515387</v>
       </c>
       <c r="S32" t="n">
         <v>6</v>
@@ -4441,7 +4420,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4451,7 +4430,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4478,10 +4457,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111274824</v>
+        <v>111265342</v>
       </c>
       <c r="B33" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4490,53 +4469,53 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 185 m N, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>652897.9797113753</v>
+        <v>653043.9889144575</v>
       </c>
       <c r="R33" t="n">
-        <v>6676191.851515387</v>
+        <v>6675347.98612793</v>
       </c>
       <c r="S33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4565,7 +4544,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4575,7 +4554,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4602,10 +4586,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111276274</v>
+        <v>111276295</v>
       </c>
       <c r="B34" t="n">
-        <v>89369</v>
+        <v>56414</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4614,30 +4598,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>100049</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4645,13 +4638,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>653083.3940769237</v>
+        <v>652692.9977226672</v>
       </c>
       <c r="R34" t="n">
-        <v>6675896.387558945</v>
+        <v>6675953.264831999</v>
       </c>
       <c r="S34" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4680,7 +4673,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4690,7 +4683,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4717,10 +4710,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111276295</v>
+        <v>111276264</v>
       </c>
       <c r="B35" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4733,21 +4726,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4759,7 +4752,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4769,13 +4762,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>652692.9977226672</v>
+        <v>652938.8923843188</v>
       </c>
       <c r="R35" t="n">
-        <v>6675953.264831999</v>
+        <v>6675797.730261074</v>
       </c>
       <c r="S35" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4804,7 +4797,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4814,7 +4807,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4841,10 +4834,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111276288</v>
+        <v>111268843</v>
       </c>
       <c r="B36" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4853,30 +4846,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4889,17 +4882,17 @@
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bennarby 599 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>653128.0951301614</v>
+        <v>653041.3813577429</v>
       </c>
       <c r="R36" t="n">
-        <v>6675757.843079904</v>
+        <v>6676149.554139665</v>
       </c>
       <c r="S36" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4928,7 +4921,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4938,7 +4931,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4965,10 +4958,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111274818</v>
+        <v>111276287</v>
       </c>
       <c r="B37" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4977,53 +4970,53 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bennarby 517 m N, Upl</t>
+          <t>Bennarby 493 m N, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>652969.0447899087</v>
+        <v>652975.4985763771</v>
       </c>
       <c r="R37" t="n">
-        <v>6675673.012862316</v>
+        <v>6675649.879196484</v>
       </c>
       <c r="S37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5052,7 +5045,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5062,7 +5055,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5089,10 +5082,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111276277</v>
+        <v>111276274</v>
       </c>
       <c r="B38" t="n">
-        <v>95535</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5105,27 +5098,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221946</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5133,13 +5125,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>652897.8550654037</v>
+        <v>653083.3940769237</v>
       </c>
       <c r="R38" t="n">
-        <v>6676194.83355011</v>
+        <v>6675896.387558945</v>
       </c>
       <c r="S38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5168,7 +5160,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5178,7 +5170,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5205,7 +5197,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111276279</v>
+        <v>111276277</v>
       </c>
       <c r="B39" t="n">
         <v>95535</v>
@@ -5238,16 +5230,8 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -5257,10 +5241,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>652608.141981552</v>
+        <v>652897.8550654037</v>
       </c>
       <c r="R39" t="n">
-        <v>6676588.478476489</v>
+        <v>6676194.83355011</v>
       </c>
       <c r="S39" t="n">
         <v>8</v>
@@ -5292,7 +5276,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5302,7 +5286,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5329,10 +5313,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111268843</v>
+        <v>111274826</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5341,39 +5325,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5381,13 +5365,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>653041.3813577429</v>
+        <v>652811.1314708465</v>
       </c>
       <c r="R40" t="n">
-        <v>6676149.554139665</v>
+        <v>6676110.055385837</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5416,7 +5400,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5426,7 +5410,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5453,10 +5437,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111276278</v>
+        <v>111276288</v>
       </c>
       <c r="B41" t="n">
-        <v>95535</v>
+        <v>103288</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5469,41 +5453,49 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221946</v>
+        <v>221144</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 599 m N, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>652683.1006531697</v>
+        <v>653128.0951301614</v>
       </c>
       <c r="R41" t="n">
-        <v>6676429.314872628</v>
+        <v>6675757.843079904</v>
       </c>
       <c r="S41" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5532,7 +5524,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5542,7 +5534,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5569,10 +5561,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111276264</v>
+        <v>111276279</v>
       </c>
       <c r="B42" t="n">
-        <v>56543</v>
+        <v>95535</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5581,39 +5573,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>103021</v>
+        <v>221946</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5621,13 +5613,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>652938.8923843188</v>
+        <v>652608.141981552</v>
       </c>
       <c r="R42" t="n">
-        <v>6675797.730261074</v>
+        <v>6676588.478476489</v>
       </c>
       <c r="S42" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5656,7 +5648,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5666,7 +5658,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5693,10 +5685,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111276275</v>
+        <v>111269753</v>
       </c>
       <c r="B43" t="n">
-        <v>95535</v>
+        <v>96348</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5705,45 +5697,53 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221946</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bennarby 504 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>652974.5434261523</v>
+        <v>652931.4232853912</v>
       </c>
       <c r="R43" t="n">
-        <v>6675660.794111629</v>
+        <v>6675809.368283006</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5809,10 +5809,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111410470</v>
+        <v>111410463</v>
       </c>
       <c r="B44" t="n">
-        <v>95535</v>
+        <v>90018</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5825,41 +5825,40 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221946</v>
+        <v>1339</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>652955.775129037</v>
+        <v>652899.1291023351</v>
       </c>
       <c r="R44" t="n">
-        <v>6675560.91665418</v>
+        <v>6675698.971007503</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5888,7 +5887,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5898,7 +5897,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5925,10 +5924,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111410479</v>
+        <v>111410453</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5937,53 +5936,53 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 591 m NW, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>652957.9861328325</v>
+        <v>652888.6517836949</v>
       </c>
       <c r="R45" t="n">
-        <v>6675686.990895226</v>
+        <v>6675710.981656395</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6012,7 +6011,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -6022,7 +6021,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6049,10 +6048,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111410478</v>
+        <v>111410484</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6061,25 +6060,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6097,17 +6096,17 @@
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>653010.7491410983</v>
+        <v>652817.7520543177</v>
       </c>
       <c r="R46" t="n">
-        <v>6675367.51151045</v>
+        <v>6676023.201180452</v>
       </c>
       <c r="S46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6136,7 +6135,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6146,7 +6145,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6173,10 +6172,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111410448</v>
+        <v>111410460</v>
       </c>
       <c r="B47" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6185,25 +6184,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6211,28 +6210,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>652958.5506333391</v>
+        <v>652960.6254034473</v>
       </c>
       <c r="R47" t="n">
-        <v>6675625.7669597</v>
+        <v>6675623.861893108</v>
       </c>
       <c r="S47" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6298,10 +6296,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111410460</v>
+        <v>111410479</v>
       </c>
       <c r="B48" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6310,53 +6308,53 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>652960.6254034473</v>
+        <v>652957.9861328325</v>
       </c>
       <c r="R48" t="n">
-        <v>6675623.861893108</v>
+        <v>6675686.990895226</v>
       </c>
       <c r="S48" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6385,7 +6383,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6395,7 +6393,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6546,10 +6544,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111410453</v>
+        <v>111410448</v>
       </c>
       <c r="B50" t="n">
-        <v>56414</v>
+        <v>5113</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6558,25 +6556,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6584,24 +6582,25 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 591 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>652888.6517836949</v>
+        <v>652958.5506333391</v>
       </c>
       <c r="R50" t="n">
-        <v>6675710.981656395</v>
+        <v>6675625.7669597</v>
       </c>
       <c r="S50" t="n">
         <v>8</v>
@@ -6633,7 +6632,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6643,7 +6642,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6670,10 +6669,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111410463</v>
+        <v>111410470</v>
       </c>
       <c r="B51" t="n">
-        <v>90018</v>
+        <v>95535</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6686,40 +6685,41 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1339</v>
+        <v>221946</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>652899.1291023351</v>
+        <v>652955.775129037</v>
       </c>
       <c r="R51" t="n">
-        <v>6675698.971007503</v>
+        <v>6675560.91665418</v>
       </c>
       <c r="S51" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6785,10 +6785,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111410484</v>
+        <v>111410478</v>
       </c>
       <c r="B52" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6797,25 +6797,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -6833,17 +6833,17 @@
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>652817.7520543177</v>
+        <v>653010.7491410983</v>
       </c>
       <c r="R52" t="n">
-        <v>6676023.201180452</v>
+        <v>6675367.51151045</v>
       </c>
       <c r="S52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7033,10 +7033,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111448641</v>
+        <v>111448642</v>
       </c>
       <c r="B54" t="n">
-        <v>89802</v>
+        <v>103288</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7049,21 +7049,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5420</v>
+        <v>221144</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7071,22 +7071,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bennarby 248 m NW, Upl</t>
+          <t>Bennarby 475 m NW, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>652992.5167218229</v>
+        <v>652941.5593289342</v>
       </c>
       <c r="R54" t="n">
-        <v>6675302.508242311</v>
+        <v>6675626.550499182</v>
       </c>
       <c r="S54" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7115,7 +7120,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -7125,7 +7130,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7134,7 +7139,6 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7277,10 +7281,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111448642</v>
+        <v>111448641</v>
       </c>
       <c r="B56" t="n">
-        <v>103288</v>
+        <v>89802</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7293,21 +7297,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221144</v>
+        <v>5420</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7315,27 +7319,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bennarby 475 m NW, Upl</t>
+          <t>Bennarby 248 m NW, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>652941.5593289342</v>
+        <v>652992.5167218229</v>
       </c>
       <c r="R56" t="n">
-        <v>6675626.550499182</v>
+        <v>6675302.508242311</v>
       </c>
       <c r="S56" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7364,7 +7363,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7374,7 +7373,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7383,6 +7382,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -3853,10 +3853,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111276278</v>
+        <v>111276287</v>
       </c>
       <c r="B28" t="n">
-        <v>95535</v>
+        <v>103288</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3869,41 +3869,49 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221946</v>
+        <v>221144</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 493 m N, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>652683.1006531697</v>
+        <v>652975.4985763771</v>
       </c>
       <c r="R28" t="n">
-        <v>6676429.314872628</v>
+        <v>6675649.879196484</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3932,7 +3940,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3942,7 +3950,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3969,10 +3977,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111276275</v>
+        <v>111268843</v>
       </c>
       <c r="B29" t="n">
-        <v>95535</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3981,45 +3989,53 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221946</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bennarby 504 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>652974.5434261523</v>
+        <v>653041.3813577429</v>
       </c>
       <c r="R29" t="n">
-        <v>6675660.794111629</v>
+        <v>6676149.554139665</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4048,7 +4064,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4058,7 +4074,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4085,7 +4101,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111274818</v>
+        <v>111274824</v>
       </c>
       <c r="B30" t="n">
         <v>56414</v>
@@ -4133,17 +4149,17 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bennarby 517 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>652969.0447899087</v>
+        <v>652897.9797113753</v>
       </c>
       <c r="R30" t="n">
-        <v>6675673.012862316</v>
+        <v>6676191.851515387</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4172,7 +4188,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4182,7 +4198,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4209,7 +4225,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111274822</v>
+        <v>111274818</v>
       </c>
       <c r="B31" t="n">
         <v>56414</v>
@@ -4257,17 +4273,17 @@
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 517 m N, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>652889.1870446624</v>
+        <v>652969.0447899087</v>
       </c>
       <c r="R31" t="n">
-        <v>6676151.653844994</v>
+        <v>6675673.012862316</v>
       </c>
       <c r="S31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4296,7 +4312,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4306,7 +4322,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4333,10 +4349,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111274824</v>
+        <v>111269753</v>
       </c>
       <c r="B32" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4345,39 +4361,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4385,10 +4401,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>652897.9797113753</v>
+        <v>652931.4232853912</v>
       </c>
       <c r="R32" t="n">
-        <v>6676191.851515387</v>
+        <v>6675809.368283006</v>
       </c>
       <c r="S32" t="n">
         <v>6</v>
@@ -4420,7 +4436,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4430,7 +4446,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4457,10 +4473,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111265342</v>
+        <v>111274822</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4469,50 +4485,50 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bennarby 185 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>653043.9889144575</v>
+        <v>652889.1870446624</v>
       </c>
       <c r="R33" t="n">
-        <v>6675347.98612793</v>
+        <v>6676151.653844994</v>
       </c>
       <c r="S33" t="n">
         <v>9</v>
@@ -4544,7 +4560,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4554,12 +4570,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:03</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4586,10 +4597,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111276295</v>
+        <v>111276278</v>
       </c>
       <c r="B34" t="n">
-        <v>56414</v>
+        <v>95535</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4598,39 +4609,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100049</v>
+        <v>221946</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4638,13 +4641,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>652692.9977226672</v>
+        <v>652683.1006531697</v>
       </c>
       <c r="R34" t="n">
-        <v>6675953.264831999</v>
+        <v>6676429.314872628</v>
       </c>
       <c r="S34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4673,7 +4676,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4683,7 +4686,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4834,10 +4837,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111268843</v>
+        <v>111274826</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4846,39 +4849,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4886,13 +4889,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>653041.3813577429</v>
+        <v>652811.1314708465</v>
       </c>
       <c r="R36" t="n">
-        <v>6676149.554139665</v>
+        <v>6676110.055385837</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4921,7 +4924,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4931,7 +4934,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4958,10 +4961,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111276287</v>
+        <v>111265342</v>
       </c>
       <c r="B37" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4970,30 +4973,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5006,17 +5009,17 @@
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bennarby 493 m N, Upl</t>
+          <t>Bennarby 185 m N, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>652975.4985763771</v>
+        <v>653043.9889144575</v>
       </c>
       <c r="R37" t="n">
-        <v>6675649.879196484</v>
+        <v>6675347.98612793</v>
       </c>
       <c r="S37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5045,7 +5048,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5055,7 +5058,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5082,10 +5090,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111276274</v>
+        <v>111276295</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>56414</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5094,30 +5102,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5125,13 +5142,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>653083.3940769237</v>
+        <v>652692.9977226672</v>
       </c>
       <c r="R38" t="n">
-        <v>6675896.387558945</v>
+        <v>6675953.264831999</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5160,7 +5177,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5170,7 +5187,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5313,10 +5330,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111274826</v>
+        <v>111276279</v>
       </c>
       <c r="B40" t="n">
-        <v>56414</v>
+        <v>95535</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5325,39 +5342,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>221946</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5365,10 +5382,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>652811.1314708465</v>
+        <v>652608.141981552</v>
       </c>
       <c r="R40" t="n">
-        <v>6676110.055385837</v>
+        <v>6676588.478476489</v>
       </c>
       <c r="S40" t="n">
         <v>8</v>
@@ -5400,7 +5417,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5410,7 +5427,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5561,10 +5578,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111276279</v>
+        <v>111276274</v>
       </c>
       <c r="B42" t="n">
-        <v>95535</v>
+        <v>89369</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5577,35 +5594,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221946</v>
+        <v>5447</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5613,13 +5621,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>652608.141981552</v>
+        <v>653083.3940769237</v>
       </c>
       <c r="R42" t="n">
-        <v>6676588.478476489</v>
+        <v>6675896.387558945</v>
       </c>
       <c r="S42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5648,7 +5656,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5658,7 +5666,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5685,10 +5693,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111269753</v>
+        <v>111276275</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>95535</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5697,53 +5705,45 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>221946</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 504 m N, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>652931.4232853912</v>
+        <v>652974.5434261523</v>
       </c>
       <c r="R43" t="n">
-        <v>6675809.368283006</v>
+        <v>6675660.794111629</v>
       </c>
       <c r="S43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5809,10 +5809,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111410463</v>
+        <v>111410475</v>
       </c>
       <c r="B44" t="n">
-        <v>90018</v>
+        <v>95535</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5825,40 +5825,49 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1339</v>
+        <v>221946</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>652899.1291023351</v>
+        <v>653059.7969692796</v>
       </c>
       <c r="R44" t="n">
-        <v>6675698.971007503</v>
+        <v>6675792.827983578</v>
       </c>
       <c r="S44" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5887,7 +5896,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5897,7 +5906,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5924,10 +5933,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111410453</v>
+        <v>111410478</v>
       </c>
       <c r="B45" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5936,53 +5945,53 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 591 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>652888.6517836949</v>
+        <v>653010.7491410983</v>
       </c>
       <c r="R45" t="n">
-        <v>6675710.981656395</v>
+        <v>6675367.51151045</v>
       </c>
       <c r="S45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6011,7 +6020,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -6021,7 +6030,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6048,10 +6057,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111410484</v>
+        <v>111410453</v>
       </c>
       <c r="B46" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6060,50 +6069,50 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 591 m NW, Upl</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>652817.7520543177</v>
+        <v>652888.6517836949</v>
       </c>
       <c r="R46" t="n">
-        <v>6676023.201180452</v>
+        <v>6675710.981656395</v>
       </c>
       <c r="S46" t="n">
         <v>8</v>
@@ -6135,7 +6144,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6145,7 +6154,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6296,10 +6305,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111410479</v>
+        <v>111410484</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6308,30 +6317,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6344,17 +6353,17 @@
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>652957.9861328325</v>
+        <v>652817.7520543177</v>
       </c>
       <c r="R48" t="n">
-        <v>6675686.990895226</v>
+        <v>6676023.201180452</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6383,7 +6392,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6393,7 +6402,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6420,10 +6429,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111410471</v>
+        <v>111410448</v>
       </c>
       <c r="B49" t="n">
-        <v>95535</v>
+        <v>5113</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6436,49 +6445,50 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>221946</v>
+        <v>100526</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 492 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>653024.332951011</v>
+        <v>652958.5506333391</v>
       </c>
       <c r="R49" t="n">
-        <v>6675674.826961012</v>
+        <v>6675625.7669597</v>
       </c>
       <c r="S49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6507,7 +6517,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6517,7 +6527,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6544,10 +6554,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111410448</v>
+        <v>111410471</v>
       </c>
       <c r="B50" t="n">
-        <v>5113</v>
+        <v>95535</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6560,50 +6570,49 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100526</v>
+        <v>221946</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 492 m NW, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>652958.5506333391</v>
+        <v>653024.332951011</v>
       </c>
       <c r="R50" t="n">
-        <v>6675625.7669597</v>
+        <v>6675674.826961012</v>
       </c>
       <c r="S50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6632,7 +6641,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6642,7 +6651,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6669,10 +6678,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111410470</v>
+        <v>111410463</v>
       </c>
       <c r="B51" t="n">
-        <v>95535</v>
+        <v>90018</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6685,41 +6694,40 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>221946</v>
+        <v>1339</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>652955.775129037</v>
+        <v>652899.1291023351</v>
       </c>
       <c r="R51" t="n">
-        <v>6675560.91665418</v>
+        <v>6675698.971007503</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6748,7 +6756,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6758,7 +6766,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6785,7 +6793,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111410478</v>
+        <v>111410479</v>
       </c>
       <c r="B52" t="n">
         <v>96348</v>
@@ -6820,7 +6828,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6833,17 +6841,17 @@
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>653010.7491410983</v>
+        <v>652957.9861328325</v>
       </c>
       <c r="R52" t="n">
-        <v>6675367.51151045</v>
+        <v>6675686.990895226</v>
       </c>
       <c r="S52" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6872,7 +6880,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6882,7 +6890,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6909,7 +6917,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111410475</v>
+        <v>111410470</v>
       </c>
       <c r="B53" t="n">
         <v>95535</v>
@@ -6942,29 +6950,21 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>653059.7969692796</v>
+        <v>652955.775129037</v>
       </c>
       <c r="R53" t="n">
-        <v>6675792.827983578</v>
+        <v>6675560.91665418</v>
       </c>
       <c r="S53" t="n">
         <v>4</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7033,10 +7033,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111448642</v>
+        <v>111448641</v>
       </c>
       <c r="B54" t="n">
-        <v>103288</v>
+        <v>89802</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7049,21 +7049,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221144</v>
+        <v>5420</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7071,27 +7071,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bennarby 475 m NW, Upl</t>
+          <t>Bennarby 248 m NW, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>652941.5593289342</v>
+        <v>652992.5167218229</v>
       </c>
       <c r="R54" t="n">
-        <v>6675626.550499182</v>
+        <v>6675302.508242311</v>
       </c>
       <c r="S54" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7120,7 +7115,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -7130,7 +7125,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7139,6 +7134,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7281,10 +7277,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111448641</v>
+        <v>111448642</v>
       </c>
       <c r="B56" t="n">
-        <v>89802</v>
+        <v>103288</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7297,21 +7293,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5420</v>
+        <v>221144</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7319,22 +7315,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bennarby 248 m NW, Upl</t>
+          <t>Bennarby 475 m NW, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>652992.5167218229</v>
+        <v>652941.5593289342</v>
       </c>
       <c r="R56" t="n">
-        <v>6675302.508242311</v>
+        <v>6675626.550499182</v>
       </c>
       <c r="S56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7363,7 +7364,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7373,7 +7374,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7382,7 +7383,6 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -5809,10 +5809,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111410475</v>
+        <v>111410460</v>
       </c>
       <c r="B44" t="n">
-        <v>95535</v>
+        <v>56543</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5821,53 +5821,53 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221946</v>
+        <v>103021</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>m²</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>653059.7969692796</v>
+        <v>652960.6254034473</v>
       </c>
       <c r="R44" t="n">
-        <v>6675792.827983578</v>
+        <v>6675623.861893108</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5933,7 +5933,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111410478</v>
+        <v>111410479</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5981,17 +5981,17 @@
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>653010.7491410983</v>
+        <v>652957.9861328325</v>
       </c>
       <c r="R45" t="n">
-        <v>6675367.51151045</v>
+        <v>6675686.990895226</v>
       </c>
       <c r="S45" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6181,10 +6181,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111410460</v>
+        <v>111410478</v>
       </c>
       <c r="B47" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6193,53 +6193,53 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>652960.6254034473</v>
+        <v>653010.7491410983</v>
       </c>
       <c r="R47" t="n">
-        <v>6675623.861893108</v>
+        <v>6675367.51151045</v>
       </c>
       <c r="S47" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6793,10 +6793,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111410479</v>
+        <v>111410470</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>95535</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6805,50 +6805,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>221946</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>652957.9861328325</v>
+        <v>652955.775129037</v>
       </c>
       <c r="R52" t="n">
-        <v>6675686.990895226</v>
+        <v>6675560.91665418</v>
       </c>
       <c r="S52" t="n">
         <v>4</v>
@@ -6880,7 +6872,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6890,7 +6882,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6917,7 +6909,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111410470</v>
+        <v>111410475</v>
       </c>
       <c r="B53" t="n">
         <v>95535</v>
@@ -6950,21 +6942,29 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>652955.775129037</v>
+        <v>653059.7969692796</v>
       </c>
       <c r="R53" t="n">
-        <v>6675560.91665418</v>
+        <v>6675792.827983578</v>
       </c>
       <c r="S53" t="n">
         <v>4</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7033,10 +7033,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111448641</v>
+        <v>111448644</v>
       </c>
       <c r="B54" t="n">
-        <v>89802</v>
+        <v>103288</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7049,41 +7049,46 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5420</v>
+        <v>221144</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bennarby 248 m NW, Upl</t>
+          <t>Bennarby 405 m NW, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>652992.5167218229</v>
+        <v>652956.8549192698</v>
       </c>
       <c r="R54" t="n">
-        <v>6675302.508242311</v>
+        <v>6675547.018880062</v>
       </c>
       <c r="S54" t="n">
         <v>6</v>
@@ -7115,7 +7120,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -7125,7 +7130,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7134,7 +7139,6 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7153,10 +7157,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111448644</v>
+        <v>111448641</v>
       </c>
       <c r="B55" t="n">
-        <v>103288</v>
+        <v>89802</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7169,46 +7173,41 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221144</v>
+        <v>5420</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bennarby 405 m NW, Upl</t>
+          <t>Bennarby 248 m NW, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>652956.8549192698</v>
+        <v>652992.5167218229</v>
       </c>
       <c r="R55" t="n">
-        <v>6675547.018880062</v>
+        <v>6675302.508242311</v>
       </c>
       <c r="S55" t="n">
         <v>6</v>
@@ -7240,7 +7239,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -7250,7 +7249,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7259,6 +7258,7 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -5809,10 +5809,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111410460</v>
+        <v>111410475</v>
       </c>
       <c r="B44" t="n">
-        <v>56543</v>
+        <v>95535</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5821,53 +5821,53 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>103021</v>
+        <v>221946</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>652960.6254034473</v>
+        <v>653059.7969692796</v>
       </c>
       <c r="R44" t="n">
-        <v>6675623.861893108</v>
+        <v>6675792.827983578</v>
       </c>
       <c r="S44" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5933,10 +5933,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111410479</v>
+        <v>111410463</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>90018</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5945,53 +5945,44 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>652957.9861328325</v>
+        <v>652899.1291023351</v>
       </c>
       <c r="R45" t="n">
-        <v>6675686.990895226</v>
+        <v>6675698.971007503</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6020,7 +6011,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -6030,7 +6021,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6057,10 +6048,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111410453</v>
+        <v>111410484</v>
       </c>
       <c r="B46" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6069,50 +6060,50 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 591 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>652888.6517836949</v>
+        <v>652817.7520543177</v>
       </c>
       <c r="R46" t="n">
-        <v>6675710.981656395</v>
+        <v>6676023.201180452</v>
       </c>
       <c r="S46" t="n">
         <v>8</v>
@@ -6144,7 +6135,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6154,7 +6145,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6181,10 +6172,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111410478</v>
+        <v>111410453</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6193,53 +6184,53 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 591 m NW, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>653010.7491410983</v>
+        <v>652888.6517836949</v>
       </c>
       <c r="R47" t="n">
-        <v>6675367.51151045</v>
+        <v>6675710.981656395</v>
       </c>
       <c r="S47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6268,7 +6259,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6278,7 +6269,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6305,10 +6296,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111410484</v>
+        <v>111410478</v>
       </c>
       <c r="B48" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6317,25 +6308,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6353,17 +6344,17 @@
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 894 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 261 m NW, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>652817.7520543177</v>
+        <v>653010.7491410983</v>
       </c>
       <c r="R48" t="n">
-        <v>6676023.201180452</v>
+        <v>6675367.51151045</v>
       </c>
       <c r="S48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6392,7 +6383,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6402,7 +6393,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6429,10 +6420,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111410448</v>
+        <v>111410470</v>
       </c>
       <c r="B49" t="n">
-        <v>5113</v>
+        <v>95535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6445,50 +6436,41 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100526</v>
+        <v>221946</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>652958.5506333391</v>
+        <v>652955.775129037</v>
       </c>
       <c r="R49" t="n">
-        <v>6675625.7669597</v>
+        <v>6675560.91665418</v>
       </c>
       <c r="S49" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6517,7 +6499,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6527,7 +6509,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6554,10 +6536,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111410471</v>
+        <v>111410479</v>
       </c>
       <c r="B50" t="n">
-        <v>95535</v>
+        <v>96348</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6566,35 +6548,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>221946</v>
+        <v>220787</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -6602,17 +6584,17 @@
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 492 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 533 m NW, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>653024.332951011</v>
+        <v>652957.9861328325</v>
       </c>
       <c r="R50" t="n">
-        <v>6675674.826961012</v>
+        <v>6675686.990895226</v>
       </c>
       <c r="S50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6641,7 +6623,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6651,7 +6633,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6678,10 +6660,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111410463</v>
+        <v>111410460</v>
       </c>
       <c r="B51" t="n">
-        <v>90018</v>
+        <v>56543</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6690,44 +6672,53 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1339</v>
+        <v>103021</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 576 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 479 m NW, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>652899.1291023351</v>
+        <v>652960.6254034473</v>
       </c>
       <c r="R51" t="n">
-        <v>6675698.971007503</v>
+        <v>6675623.861893108</v>
       </c>
       <c r="S51" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6756,7 +6747,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6766,7 +6757,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6793,7 +6784,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111410470</v>
+        <v>111410471</v>
       </c>
       <c r="B52" t="n">
         <v>95535</v>
@@ -6826,24 +6817,32 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 432 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 492 m NW, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>652955.775129037</v>
+        <v>653024.332951011</v>
       </c>
       <c r="R52" t="n">
-        <v>6675560.91665418</v>
+        <v>6675674.826961012</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6872,7 +6871,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6882,7 +6881,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6909,10 +6908,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111410475</v>
+        <v>111410448</v>
       </c>
       <c r="B53" t="n">
-        <v>95535</v>
+        <v>5113</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6925,21 +6924,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221946</v>
+        <v>100526</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6947,27 +6946,28 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bennarby, Dannemora, Upl 590 m NW, Upl</t>
+          <t>Bennarby, Dannemora, Upl 482 m NW, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>653059.7969692796</v>
+        <v>652958.5506333391</v>
       </c>
       <c r="R53" t="n">
-        <v>6675792.827983578</v>
+        <v>6675625.7669597</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD53" t="b">

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -7033,10 +7033,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111448644</v>
+        <v>111448641</v>
       </c>
       <c r="B54" t="n">
-        <v>103288</v>
+        <v>89802</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7049,46 +7049,41 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221144</v>
+        <v>5420</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bennarby 405 m NW, Upl</t>
+          <t>Bennarby 248 m NW, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>652956.8549192698</v>
+        <v>652992.5167218229</v>
       </c>
       <c r="R54" t="n">
-        <v>6675547.018880062</v>
+        <v>6675302.508242311</v>
       </c>
       <c r="S54" t="n">
         <v>6</v>
@@ -7120,7 +7115,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -7130,7 +7125,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>15:39</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7139,6 +7134,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7157,10 +7153,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111448641</v>
+        <v>111448644</v>
       </c>
       <c r="B55" t="n">
-        <v>89802</v>
+        <v>103288</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7173,41 +7169,46 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5420</v>
+        <v>221144</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bennarby 248 m NW, Upl</t>
+          <t>Bennarby 405 m NW, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>652992.5167218229</v>
+        <v>652956.8549192698</v>
       </c>
       <c r="R55" t="n">
-        <v>6675302.508242311</v>
+        <v>6675547.018880062</v>
       </c>
       <c r="S55" t="n">
         <v>6</v>
@@ -7239,7 +7240,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -7249,7 +7250,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7258,7 +7259,6 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY56"/>
+  <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7399,6 +7399,493 @@
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112145545</v>
+      </c>
+      <c r="B57" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Bennarby, Upl</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>653038.3046146344</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6675340.776511455</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112145544</v>
+      </c>
+      <c r="B58" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Bennarby, Upl</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>653023.8828454959</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6675363.578861667</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112145539</v>
+      </c>
+      <c r="B59" t="n">
+        <v>90018</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1339</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pycnoporellus fulgens</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Bennarby, Upl</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>652996.6865235955</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6675310.152517678</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112145535</v>
+      </c>
+      <c r="B60" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Smigruvan, Upl</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>653011.7621751076</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6675152.417146614</v>
+      </c>
+      <c r="S60" t="n">
+        <v>84</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -7525,10 +7525,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112145544</v>
+        <v>112145535</v>
       </c>
       <c r="B58" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7537,53 +7537,53 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bennarby, Upl</t>
+          <t>Smigruvan, Upl</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>653023.8828454959</v>
+        <v>653011.7621751076</v>
       </c>
       <c r="R58" t="n">
-        <v>6675363.578861667</v>
+        <v>6675152.417146614</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7764,10 +7764,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112145535</v>
+        <v>112145544</v>
       </c>
       <c r="B60" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7776,53 +7776,53 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Smigruvan, Upl</t>
+          <t>Bennarby, Upl</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>653011.7621751076</v>
+        <v>653023.8828454959</v>
       </c>
       <c r="R60" t="n">
-        <v>6675152.417146614</v>
+        <v>6675363.578861667</v>
       </c>
       <c r="S60" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD60" t="b">

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -7401,7 +7401,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112145545</v>
+        <v>112145544</v>
       </c>
       <c r="B57" t="n">
         <v>96348</v>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7453,10 +7453,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>653038.3046146344</v>
+        <v>653024</v>
       </c>
       <c r="R57" t="n">
-        <v>6675340.776511455</v>
+        <v>6675364</v>
       </c>
       <c r="S57" t="n">
         <v>4</v>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7577,10 +7577,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>653011.7621751076</v>
+        <v>653012</v>
       </c>
       <c r="R58" t="n">
-        <v>6675152.417146614</v>
+        <v>6675152</v>
       </c>
       <c r="S58" t="n">
         <v>84</v>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112145539</v>
+        <v>112145545</v>
       </c>
       <c r="B59" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7661,30 +7661,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7692,10 +7701,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>652996.6865235955</v>
+        <v>653038</v>
       </c>
       <c r="R59" t="n">
-        <v>6675310.152517678</v>
+        <v>6675341</v>
       </c>
       <c r="S59" t="n">
         <v>4</v>
@@ -7727,7 +7736,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7737,7 +7746,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7764,10 +7773,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112145544</v>
+        <v>112145539</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>90018</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7776,39 +7785,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>653023.8828454959</v>
+        <v>652997</v>
       </c>
       <c r="R60" t="n">
-        <v>6675363.578861667</v>
+        <v>6675310</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD60" t="b">

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111232792</v>
+        <v>111274824</v>
       </c>
       <c r="B2" t="n">
         <v>56414</v>
@@ -722,23 +722,23 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bennarby 535 m NE, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>653109.5315440274</v>
+        <v>652897.9797113753</v>
       </c>
       <c r="R2" t="n">
-        <v>6675724.700171486</v>
+        <v>6676191.851515387</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -762,22 +762,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111237120</v>
+        <v>111274822</v>
       </c>
       <c r="B3" t="n">
-        <v>95535</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,45 +816,53 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221946</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bennarby 490 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>653005.8886967609</v>
+        <v>652889.1870446624</v>
       </c>
       <c r="R3" t="n">
-        <v>6675686.504186048</v>
+        <v>6676151.653844994</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -878,22 +886,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111237131</v>
+        <v>111276277</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>95535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,21 +944,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>221946</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -960,17 +968,17 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bennarby 850 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>652847.8720841159</v>
+        <v>652897.8550654037</v>
       </c>
       <c r="R4" t="n">
-        <v>6676030.434303769</v>
+        <v>6676194.83355011</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,22 +1002,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111237128</v>
+        <v>111232792</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,53 +1056,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bennarby 723 m N, Upl</t>
+          <t>Bennarby 535 m NE, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>652932.4741644359</v>
+        <v>653109.5315440274</v>
       </c>
       <c r="R5" t="n">
-        <v>6675915.469018306</v>
+        <v>6675724.700171486</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1123,7 +1131,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1133,7 +1141,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,7 +1150,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1161,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111237136</v>
+        <v>111237120</v>
       </c>
       <c r="B6" t="n">
-        <v>103288</v>
+        <v>95535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1177,49 +1184,41 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221144</v>
+        <v>221946</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bennarby, Upl</t>
+          <t>Bennarby 490 m N, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>653020.9297556247</v>
+        <v>653005.8886967609</v>
       </c>
       <c r="R6" t="n">
-        <v>6675195.629644918</v>
+        <v>6675686.504186048</v>
       </c>
       <c r="S6" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1248,7 +1247,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1258,7 +1257,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1285,10 +1284,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111237109</v>
+        <v>111237131</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,40 +1300,41 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bennarby 656 m N, Upl</t>
+          <t>Bennarby 850 m N, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>652917.9988985056</v>
+        <v>652847.8720841159</v>
       </c>
       <c r="R7" t="n">
-        <v>6675844.15973737</v>
+        <v>6676030.434303769</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>15:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>15:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1400,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111237134</v>
+        <v>111237128</v>
       </c>
       <c r="B8" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1412,30 +1412,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1448,17 +1448,17 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bennarby 649 m NW, Upl</t>
+          <t>Bennarby 723 m N, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>652848.5868069781</v>
+        <v>652932.4741644359</v>
       </c>
       <c r="R8" t="n">
-        <v>6675822.33798265</v>
+        <v>6675915.469018306</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1506,6 +1506,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1524,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111232800</v>
+        <v>111237136</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1536,53 +1537,53 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bennarby 518 m NE, Upl</t>
+          <t>Bennarby, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653098.7455210061</v>
+        <v>653020.9297556247</v>
       </c>
       <c r="R9" t="n">
-        <v>6675708.3146771</v>
+        <v>6675195.629644918</v>
       </c>
       <c r="S9" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1611,7 +1612,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1621,7 +1622,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1648,10 +1649,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111232790</v>
+        <v>111237109</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>89369</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1660,53 +1661,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bennarby 17 m SE, Upl</t>
+          <t>Bennarby 656 m N, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>653036.263870474</v>
+        <v>652917.9988985056</v>
       </c>
       <c r="R10" t="n">
-        <v>6675186.80869672</v>
+        <v>6675844.15973737</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1735,7 +1727,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1745,7 +1737,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1772,7 +1764,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111237141</v>
+        <v>111237134</v>
       </c>
       <c r="B11" t="n">
         <v>103288</v>
@@ -1807,7 +1799,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1820,14 +1812,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bennarby 455 m N, Upl</t>
+          <t>Bennarby 649 m NW, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653040.309706677</v>
+        <v>652848.5868069781</v>
       </c>
       <c r="R11" t="n">
-        <v>6675650.597852546</v>
+        <v>6675822.33798265</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1859,7 +1851,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1869,7 +1861,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1896,10 +1888,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111237117</v>
+        <v>111232800</v>
       </c>
       <c r="B12" t="n">
-        <v>95535</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1908,45 +1900,53 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221946</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bennarby 660 m NW, Upl</t>
+          <t>Bennarby 518 m NE, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>652810.2082257374</v>
+        <v>653098.7455210061</v>
       </c>
       <c r="R12" t="n">
-        <v>6675821.730579126</v>
+        <v>6675708.3146771</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2012,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111237140</v>
+        <v>111232790</v>
       </c>
       <c r="B13" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2024,50 +2024,50 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bennarby 662 m NW, Upl</t>
+          <t>Bennarby 17 m SE, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>652876.1561209694</v>
+        <v>653036.263870474</v>
       </c>
       <c r="R13" t="n">
-        <v>6675842.908905573</v>
+        <v>6675186.80869672</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2136,10 +2136,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111237114</v>
+        <v>111237141</v>
       </c>
       <c r="B14" t="n">
-        <v>95532</v>
+        <v>103288</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2152,41 +2152,49 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221945</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bennarby 411 m N, Upl</t>
+          <t>Bennarby 455 m N, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>653034.1728517635</v>
+        <v>653040.309706677</v>
       </c>
       <c r="R14" t="n">
-        <v>6675606.521359766</v>
+        <v>6675650.597852546</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2215,7 +2223,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2225,7 +2233,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2252,7 +2260,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111237116</v>
+        <v>111237117</v>
       </c>
       <c r="B15" t="n">
         <v>95535</v>
@@ -2285,29 +2293,21 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bennarby 551 m N, Upl</t>
+          <t>Bennarby 660 m NW, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>652923.4201053669</v>
+        <v>652810.2082257374</v>
       </c>
       <c r="R15" t="n">
-        <v>6675738.327518014</v>
+        <v>6675821.730579126</v>
       </c>
       <c r="S15" t="n">
         <v>8</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2376,10 +2376,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111237124</v>
+        <v>111237140</v>
       </c>
       <c r="B16" t="n">
-        <v>95535</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2392,31 +2392,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221946</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2424,17 +2424,17 @@
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bennarby 479 m NE, Upl</t>
+          <t>Bennarby 662 m NW, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>653100.3679818566</v>
+        <v>652876.1561209694</v>
       </c>
       <c r="R16" t="n">
-        <v>6675669.542867802</v>
+        <v>6675842.908905573</v>
       </c>
       <c r="S16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2500,10 +2500,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111232797</v>
+        <v>111237114</v>
       </c>
       <c r="B17" t="n">
-        <v>56543</v>
+        <v>95532</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2512,53 +2512,45 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>221945</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bennarby, Upl</t>
+          <t>Bennarby 411 m N, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653020.9297556247</v>
+        <v>653034.1728517635</v>
       </c>
       <c r="R17" t="n">
-        <v>6675195.629644918</v>
+        <v>6675606.521359766</v>
       </c>
       <c r="S17" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2587,7 +2579,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2597,7 +2589,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2624,7 +2616,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111237121</v>
+        <v>111237116</v>
       </c>
       <c r="B18" t="n">
         <v>95535</v>
@@ -2659,7 +2651,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2672,17 +2664,17 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Bennarby 483 m N, Upl</t>
+          <t>Bennarby 551 m N, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653030.1206792727</v>
+        <v>652923.4201053669</v>
       </c>
       <c r="R18" t="n">
-        <v>6675679.550551136</v>
+        <v>6675738.327518014</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2711,7 +2703,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2721,7 +2713,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2748,10 +2740,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111237135</v>
+        <v>111237124</v>
       </c>
       <c r="B19" t="n">
-        <v>103288</v>
+        <v>95535</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2764,31 +2756,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221144</v>
+        <v>221946</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2796,17 +2788,17 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bennarby 684 m N, Upl</t>
+          <t>Bennarby 479 m NE, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>652877.6900598493</v>
+        <v>653100.3679818566</v>
       </c>
       <c r="R19" t="n">
-        <v>6675865.877308949</v>
+        <v>6675669.542867802</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2835,7 +2827,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2845,7 +2837,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2872,7 +2864,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111232799</v>
+        <v>111232797</v>
       </c>
       <c r="B20" t="n">
         <v>56543</v>
@@ -2920,17 +2912,17 @@
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bennarby 483 m N, Upl</t>
+          <t>Bennarby, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>653009.1879392023</v>
+        <v>653020.9297556247</v>
       </c>
       <c r="R20" t="n">
-        <v>6675679.172996391</v>
+        <v>6675195.629644918</v>
       </c>
       <c r="S20" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2959,7 +2951,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2969,7 +2961,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2996,10 +2988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111232791</v>
+        <v>111237121</v>
       </c>
       <c r="B21" t="n">
-        <v>56414</v>
+        <v>95535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3008,53 +3000,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>221946</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bennarby 839 m N, Upl</t>
+          <t>Bennarby 483 m N, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>652888.9662722219</v>
+        <v>653030.1206792727</v>
       </c>
       <c r="R21" t="n">
-        <v>6676025.678915217</v>
+        <v>6675679.550551136</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3083,7 +3075,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3093,7 +3085,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3120,10 +3112,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111249690</v>
+        <v>111237135</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3132,30 +3124,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3168,17 +3160,17 @@
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Långmossen 202 m SW, Upl</t>
+          <t>Bennarby 684 m N, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>652685.1345972607</v>
+        <v>652877.6900598493</v>
       </c>
       <c r="R22" t="n">
-        <v>6676249.17749316</v>
+        <v>6675865.877308949</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3202,22 +3194,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3244,10 +3236,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111249684</v>
+        <v>111232799</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3260,40 +3252,49 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Långmossen 217 m NW, Upl</t>
+          <t>Bennarby 483 m N, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>652631.4748107102</v>
+        <v>653009.1879392023</v>
       </c>
       <c r="R23" t="n">
-        <v>6676471.467585081</v>
+        <v>6675679.172996391</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3317,22 +3318,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3359,10 +3360,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111245090</v>
+        <v>111232791</v>
       </c>
       <c r="B24" t="n">
-        <v>90018</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3371,44 +3372,53 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1339</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bennarby (Bennarby), Upl</t>
+          <t>Bennarby 839 m N, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>652995.8569036967</v>
+        <v>652888.9662722219</v>
       </c>
       <c r="R24" t="n">
-        <v>6675306.133869487</v>
+        <v>6676025.678915217</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3432,22 +3442,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3456,24 +3466,8 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3490,7 +3484,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111249689</v>
+        <v>111249690</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3525,7 +3519,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3538,17 +3532,17 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Långmossen 204 m SW, Upl</t>
+          <t>Långmossen 202 m SW, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>652676.3604001063</v>
+        <v>652685.1345972607</v>
       </c>
       <c r="R25" t="n">
-        <v>6676256.27920232</v>
+        <v>6676249.17749316</v>
       </c>
       <c r="S25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3577,7 +3571,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3587,7 +3581,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3614,10 +3608,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111249676</v>
+        <v>111249684</v>
       </c>
       <c r="B26" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3630,49 +3624,40 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Långmossen 199 m SW, Upl</t>
+          <t>Långmossen 217 m NW, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>652730.8314067896</v>
+        <v>652631.4748107102</v>
       </c>
       <c r="R26" t="n">
-        <v>6676217.728192463</v>
+        <v>6676471.467585081</v>
       </c>
       <c r="S26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3701,7 +3686,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3711,7 +3696,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3738,7 +3723,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111249688</v>
+        <v>111245090</v>
       </c>
       <c r="B27" t="n">
         <v>90018</v>
@@ -3777,17 +3762,17 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långmossen 140 m NW, Upl</t>
+          <t>Bennarby (Bennarby), Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>652704.8584836012</v>
+        <v>652995.8569036967</v>
       </c>
       <c r="R27" t="n">
-        <v>6676445.656187969</v>
+        <v>6675306.133869487</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3816,7 +3801,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3826,7 +3811,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3835,8 +3820,24 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3853,10 +3854,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111276287</v>
+        <v>111249689</v>
       </c>
       <c r="B28" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3865,30 +3866,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3901,17 +3902,17 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bennarby 493 m N, Upl</t>
+          <t>Långmossen 204 m SW, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>652975.4985763771</v>
+        <v>652676.3604001063</v>
       </c>
       <c r="R28" t="n">
-        <v>6675649.879196484</v>
+        <v>6676256.27920232</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3935,22 +3936,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3977,10 +3978,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111268843</v>
+        <v>111249676</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3989,53 +3990,53 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Långmossen 199 m SW, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>653041.3813577429</v>
+        <v>652730.8314067896</v>
       </c>
       <c r="R29" t="n">
-        <v>6676149.554139665</v>
+        <v>6676217.728192463</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4059,22 +4060,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4101,10 +4102,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111274824</v>
+        <v>111249688</v>
       </c>
       <c r="B30" t="n">
-        <v>56414</v>
+        <v>90018</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4113,50 +4114,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>1339</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Långmossen 140 m NW, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>652897.9797113753</v>
+        <v>652704.8584836012</v>
       </c>
       <c r="R30" t="n">
-        <v>6676191.851515387</v>
+        <v>6676445.656187969</v>
       </c>
       <c r="S30" t="n">
         <v>6</v>
@@ -4183,22 +4175,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4225,10 +4217,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111274818</v>
+        <v>111276287</v>
       </c>
       <c r="B31" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4237,53 +4229,53 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bennarby 517 m N, Upl</t>
+          <t>Bennarby 493 m N, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>652969.0447899087</v>
+        <v>652975.4985763771</v>
       </c>
       <c r="R31" t="n">
-        <v>6675673.012862316</v>
+        <v>6675649.879196484</v>
       </c>
       <c r="S31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4312,7 +4304,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4322,7 +4314,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4349,7 +4341,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111269753</v>
+        <v>111268843</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4401,10 +4393,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>652931.4232853912</v>
+        <v>653041.3813577429</v>
       </c>
       <c r="R32" t="n">
-        <v>6675809.368283006</v>
+        <v>6676149.554139665</v>
       </c>
       <c r="S32" t="n">
         <v>6</v>
@@ -4436,7 +4428,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4446,7 +4438,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4473,7 +4465,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111274822</v>
+        <v>111274818</v>
       </c>
       <c r="B33" t="n">
         <v>56414</v>
@@ -4521,17 +4513,17 @@
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 517 m N, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>652889.1870446624</v>
+        <v>652969.0447899087</v>
       </c>
       <c r="R33" t="n">
-        <v>6676151.653844994</v>
+        <v>6675673.012862316</v>
       </c>
       <c r="S33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4560,7 +4552,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4570,7 +4562,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4597,10 +4589,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111276278</v>
+        <v>111269753</v>
       </c>
       <c r="B34" t="n">
-        <v>95535</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4609,29 +4601,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221946</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -4641,13 +4641,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>652683.1006531697</v>
+        <v>652931.4232853912</v>
       </c>
       <c r="R34" t="n">
-        <v>6676429.314872628</v>
+        <v>6675809.368283006</v>
       </c>
       <c r="S34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4713,10 +4713,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111276264</v>
+        <v>111276278</v>
       </c>
       <c r="B35" t="n">
-        <v>56543</v>
+        <v>95535</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4725,39 +4725,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103021</v>
+        <v>221946</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4765,13 +4757,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>652938.8923843188</v>
+        <v>652683.1006531697</v>
       </c>
       <c r="R35" t="n">
-        <v>6675797.730261074</v>
+        <v>6676429.314872628</v>
       </c>
       <c r="S35" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4800,7 +4792,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4810,7 +4802,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4837,10 +4829,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111274826</v>
+        <v>111276264</v>
       </c>
       <c r="B36" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4853,21 +4845,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4879,7 +4871,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -4889,13 +4881,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>652811.1314708465</v>
+        <v>652938.8923843188</v>
       </c>
       <c r="R36" t="n">
-        <v>6676110.055385837</v>
+        <v>6675797.730261074</v>
       </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4924,7 +4916,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4934,7 +4926,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4961,10 +4953,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111265342</v>
+        <v>111274826</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4973,53 +4965,53 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bennarby 185 m N, Upl</t>
+          <t>Långmossen , Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>653043.9889144575</v>
+        <v>652811.1314708465</v>
       </c>
       <c r="R37" t="n">
-        <v>6675347.98612793</v>
+        <v>6676110.055385837</v>
       </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5048,7 +5040,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5058,12 +5050,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:03</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5090,10 +5077,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111276295</v>
+        <v>111265342</v>
       </c>
       <c r="B38" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5102,50 +5089,50 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Långmossen , Upl</t>
+          <t>Bennarby 185 m N, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>652692.9977226672</v>
+        <v>653043.9889144575</v>
       </c>
       <c r="R38" t="n">
-        <v>6675953.264831999</v>
+        <v>6675347.98612793</v>
       </c>
       <c r="S38" t="n">
         <v>9</v>
@@ -5177,7 +5164,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5187,7 +5174,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Minst! Helt tjockt med småplantor och även lite större plantor på bara nån kvadratmeter. Även en variegerad planta!</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5214,10 +5206,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111276277</v>
+        <v>111276295</v>
       </c>
       <c r="B39" t="n">
-        <v>95535</v>
+        <v>56414</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5226,31 +5218,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221946</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5258,13 +5258,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>652897.8550654037</v>
+        <v>652692.9977226672</v>
       </c>
       <c r="R39" t="n">
-        <v>6676194.83355011</v>
+        <v>6675953.264831999</v>
       </c>
       <c r="S39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -7401,10 +7401,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112145544</v>
+        <v>112145545</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7453,10 +7453,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>653024</v>
+        <v>653038</v>
       </c>
       <c r="R57" t="n">
-        <v>6675364</v>
+        <v>6675341</v>
       </c>
       <c r="S57" t="n">
         <v>4</v>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7528,7 +7528,7 @@
         <v>112145535</v>
       </c>
       <c r="B58" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112145545</v>
+        <v>112145539</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>90152</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7661,39 +7661,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7701,10 +7692,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>653038</v>
+        <v>652997</v>
       </c>
       <c r="R59" t="n">
-        <v>6675341</v>
+        <v>6675310</v>
       </c>
       <c r="S59" t="n">
         <v>4</v>
@@ -7736,7 +7727,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7746,7 +7737,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7773,10 +7764,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112145539</v>
+        <v>112145544</v>
       </c>
       <c r="B60" t="n">
-        <v>90018</v>
+        <v>96720</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7785,30 +7776,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>652997</v>
+        <v>653024</v>
       </c>
       <c r="R60" t="n">
-        <v>6675310</v>
+        <v>6675364</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD60" t="b">

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -7401,10 +7401,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112145545</v>
+        <v>112145535</v>
       </c>
       <c r="B57" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7413,53 +7413,53 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bennarby, Upl</t>
+          <t>Smigruvan, Upl</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>653038</v>
+        <v>653012</v>
       </c>
       <c r="R57" t="n">
-        <v>6675341</v>
+        <v>6675152</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7525,10 +7525,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112145535</v>
+        <v>112145544</v>
       </c>
       <c r="B58" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7537,53 +7537,53 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Smigruvan, Upl</t>
+          <t>Bennarby, Upl</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>653012</v>
+        <v>653024</v>
       </c>
       <c r="R58" t="n">
-        <v>6675152</v>
+        <v>6675364</v>
       </c>
       <c r="S58" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7649,10 +7649,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112145539</v>
+        <v>112145545</v>
       </c>
       <c r="B59" t="n">
-        <v>90152</v>
+        <v>96735</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7661,30 +7661,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7692,10 +7701,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>652997</v>
+        <v>653038</v>
       </c>
       <c r="R59" t="n">
-        <v>6675310</v>
+        <v>6675341</v>
       </c>
       <c r="S59" t="n">
         <v>4</v>
@@ -7727,7 +7736,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7737,7 +7746,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7764,10 +7773,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112145544</v>
+        <v>112145539</v>
       </c>
       <c r="B60" t="n">
-        <v>96720</v>
+        <v>90166</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7776,39 +7785,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>653024</v>
+        <v>652997</v>
       </c>
       <c r="R60" t="n">
-        <v>6675364</v>
+        <v>6675310</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD60" t="b">

--- a/artfynd/A 23606-2023.xlsx
+++ b/artfynd/A 23606-2023.xlsx
@@ -7401,10 +7401,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112145535</v>
+        <v>112145544</v>
       </c>
       <c r="B57" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7413,53 +7413,53 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Smigruvan, Upl</t>
+          <t>Bennarby, Upl</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>653012</v>
+        <v>653024</v>
       </c>
       <c r="R57" t="n">
-        <v>6675152</v>
+        <v>6675364</v>
       </c>
       <c r="S57" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7525,10 +7525,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112145544</v>
+        <v>112145539</v>
       </c>
       <c r="B58" t="n">
-        <v>96735</v>
+        <v>90166</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7537,39 +7537,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7577,10 +7568,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>653024</v>
+        <v>652997</v>
       </c>
       <c r="R58" t="n">
-        <v>6675364</v>
+        <v>6675310</v>
       </c>
       <c r="S58" t="n">
         <v>4</v>
@@ -7612,7 +7603,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7622,7 +7613,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7649,10 +7640,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112145545</v>
+        <v>112145535</v>
       </c>
       <c r="B59" t="n">
-        <v>96735</v>
+        <v>56575</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7661,53 +7652,53 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bennarby, Upl</t>
+          <t>Smigruvan, Upl</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>653038</v>
+        <v>653012</v>
       </c>
       <c r="R59" t="n">
-        <v>6675341</v>
+        <v>6675152</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7736,7 +7727,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7746,7 +7737,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7773,10 +7764,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112145539</v>
+        <v>112145545</v>
       </c>
       <c r="B60" t="n">
-        <v>90166</v>
+        <v>96735</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7785,30 +7776,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>652997</v>
+        <v>653038</v>
       </c>
       <c r="R60" t="n">
-        <v>6675310</v>
+        <v>6675341</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD60" t="b">
